--- a/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
+++ b/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh+Gateway\SensorBoard\Project Outputs for SensorBoard\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh-Gateway\SensorBoard\Project Outputs for SensorBoard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD56914-65FC-4ACB-99FE-264C376B384C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F92975-47CF-443B-B6EF-DD2B669D5DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{8EC7018F-CD37-4351-BE08-CAC7779E03FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0B122722-2BF6-439A-B7B5-F44C8CBB52F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SensorBoard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="168">
   <si>
     <t>DesignItemId</t>
   </si>
@@ -192,13 +192,13 @@
     <t>D9</t>
   </si>
   <si>
-    <t>ORH-R35A</t>
-  </si>
-  <si>
-    <t>RLED</t>
-  </si>
-  <si>
-    <t>OrangeRed 615~625nm 0805 Light Emitting Diodes (LED) RoHS</t>
+    <t>12-21SURC/S530-A3/TR8</t>
+  </si>
+  <si>
+    <t>RLED-RA</t>
+  </si>
+  <si>
+    <t>Red 624nm Right-Angle 1206 Light Emitting Diodes (LED) RoHS</t>
   </si>
   <si>
     <t>D10</t>
@@ -231,7 +231,13 @@
     <t>Pluggable Terminal Blocks SMT TB R/A HEADER 3.5MM, 4 POS</t>
   </si>
   <si>
-    <t>J2, J3, J11, J12</t>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>CONN_2213932-4_TEC-NoBody</t>
+  </si>
+  <si>
+    <t>J2, J3, J11, J12, J14</t>
   </si>
   <si>
     <t>CONN_2213932-4_TEC</t>
@@ -285,7 +291,7 @@
     <t>CUI PJ-102AH</t>
   </si>
   <si>
-    <t>Male Header 2x3</t>
+    <t>Female Header 2x3</t>
   </si>
   <si>
     <t>PEC03DAAN</t>
@@ -297,6 +303,21 @@
     <t>JP1</t>
   </si>
   <si>
+    <t>Female Header RA 2x3</t>
+  </si>
+  <si>
+    <t>Male Header 2x1</t>
+  </si>
+  <si>
+    <t>PEC02SAAN</t>
+  </si>
+  <si>
+    <t>Header, 100mil, 2x1, Tin, TH</t>
+  </si>
+  <si>
+    <t>JP2</t>
+  </si>
+  <si>
     <t>ACM2012-121-2P-T002</t>
   </si>
   <si>
@@ -333,7 +354,7 @@
     <t>Resistor SMD 0805</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R1, R3, R4</t>
   </si>
   <si>
     <t>0R</t>
@@ -342,12 +363,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R3, R4</t>
-  </si>
-  <si>
     <t>10ohm</t>
   </si>
   <si>
@@ -360,13 +375,13 @@
     <t>R7, R8, R11, R20</t>
   </si>
   <si>
-    <t>170ohm</t>
-  </si>
-  <si>
-    <t>R9, R10, R28</t>
-  </si>
-  <si>
-    <t>400k</t>
+    <t>33ohm</t>
+  </si>
+  <si>
+    <t>R9, R10</t>
+  </si>
+  <si>
+    <t>470k</t>
   </si>
   <si>
     <t>R12, R16, R21, R26</t>
@@ -375,7 +390,13 @@
     <t>100k</t>
   </si>
   <si>
-    <t>R13, R14, R15, R17, R19, R23, R24, R25</t>
+    <t>R13, R17, R19, R24</t>
+  </si>
+  <si>
+    <t>110k</t>
+  </si>
+  <si>
+    <t>R14, R15, R23, R25</t>
   </si>
   <si>
     <t>3.3k</t>
@@ -384,18 +405,24 @@
     <t>R18</t>
   </si>
   <si>
-    <t>1.62k</t>
+    <t>1.6k (1%)</t>
   </si>
   <si>
     <t>R22</t>
   </si>
   <si>
-    <t>290ohm</t>
+    <t>200ohm</t>
   </si>
   <si>
     <t>R27</t>
   </si>
   <si>
+    <t>130ohm</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
     <t>EVP-AWCD4A</t>
   </si>
   <si>
@@ -406,6 +433,21 @@
   </si>
   <si>
     <t>PANASONIC EVPAW</t>
+  </si>
+  <si>
+    <t>SNT-100-BK-G Jumper</t>
+  </si>
+  <si>
+    <t>SNT-100-BK-G</t>
+  </si>
+  <si>
+    <t>Shunt, 100mil, Gold plated, Black</t>
+  </si>
+  <si>
+    <t>SH-J1</t>
+  </si>
+  <si>
+    <t>Jumper</t>
   </si>
   <si>
     <t>TL3330AF260QG</t>
@@ -880,17 +922,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7DCA19-DA22-4683-AAE9-CB725C74C622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20100A3-F8AB-4B37-A9AE-CB777A9629EE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1282,96 +1326,96 @@
         <v>62</v>
       </c>
       <c r="G17" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G18" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="D20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="4">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -1379,45 +1423,45 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -1425,68 +1469,68 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -1494,275 +1538,275 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G29" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G30" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="4">
         <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="4">
-        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G33" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G34" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -1770,145 +1814,237 @@
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="F39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="F40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="B43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="B45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="D45" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="31" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup scale="29" orientation="landscape" blackAndWhite="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
+++ b/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh-Gateway\SensorBoard\Project Outputs for SensorBoard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F92975-47CF-443B-B6EF-DD2B669D5DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B05BD46-3DE7-418C-BB50-E0200B7F4DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0B122722-2BF6-439A-B7B5-F44C8CBB52F8}"/>
+    <workbookView xWindow="7200" yWindow="3945" windowWidth="21600" windowHeight="11505" xr2:uid="{D06E21C2-789A-404E-A589-0488EF1CEEF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SensorBoard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="169">
   <si>
     <t>DesignItemId</t>
   </si>
@@ -75,7 +75,7 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C2, C4, C5, C6</t>
+    <t>C2, C4, C5</t>
   </si>
   <si>
     <t>1uF</t>
@@ -291,21 +291,18 @@
     <t>CUI PJ-102AH</t>
   </si>
   <si>
-    <t>Female Header 2x3</t>
+    <t>Male Header 2x3 RA</t>
   </si>
   <si>
     <t>PEC03DAAN</t>
   </si>
   <si>
-    <t>Header, 100mil, 3x2, Tin, TH</t>
+    <t>Header, Right Angle, 100mil, 3x2, Tin, TH</t>
   </si>
   <si>
     <t>JP1</t>
   </si>
   <si>
-    <t>Female Header RA 2x3</t>
-  </si>
-  <si>
     <t>Male Header 2x1</t>
   </si>
   <si>
@@ -423,16 +420,22 @@
     <t>R28</t>
   </si>
   <si>
-    <t>EVP-AWCD4A</t>
-  </si>
-  <si>
-    <t>3.0MM X 2.0MM / 2.4N / 0.13MM ST</t>
+    <t>120ohm</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>B3U-1000P</t>
+  </si>
+  <si>
+    <t>Tactile Switch SPST-NO Top Actuated Surface Mount</t>
   </si>
   <si>
     <t>S1</t>
   </si>
   <si>
-    <t>PANASONIC EVPAW</t>
+    <t>SW_B3U-1000P</t>
   </si>
   <si>
     <t>SNT-100-BK-G Jumper</t>
@@ -483,16 +486,16 @@
     <t>ESP32WROOM32UEM113EH6400UH3Q0</t>
   </si>
   <si>
-    <t>ISO3082DWR</t>
-  </si>
-  <si>
-    <t>ISO3082DWR RS-485 Transceiver</t>
-  </si>
-  <si>
-    <t>200-Kbps, half-duplex, 2.5-kVrms isolated RS-485 &amp; RS-422 transceiver 16-SOIC -40 to 85</t>
+    <t>MAX3485ESA+</t>
+  </si>
+  <si>
+    <t>1/1 Transceiver Half RS422, RS485 8-SOIC</t>
   </si>
   <si>
     <t>U2</t>
+  </si>
+  <si>
+    <t>SOIC127P600X175-8N</t>
   </si>
   <si>
     <t>SM712.TCT</t>
@@ -922,19 +925,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20100A3-F8AB-4B37-A9AE-CB777A9629EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E853FD-42AF-4415-85FE-360E23A57D09}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1004,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1458,7 +1459,7 @@
         <v>87</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>84</v>
@@ -1469,22 +1470,22 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -1492,22 +1493,22 @@
     </row>
     <row r="25" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -1515,22 +1516,22 @@
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -1538,22 +1539,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" s="4">
         <v>3</v>
@@ -1561,22 +1562,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -1584,22 +1585,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G29" s="4">
         <v>2</v>
@@ -1607,22 +1608,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="4">
         <v>4</v>
@@ -1630,22 +1631,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" s="4">
         <v>2</v>
@@ -1653,22 +1654,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
@@ -1676,22 +1677,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" s="4">
         <v>4</v>
@@ -1699,22 +1700,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G34" s="4">
         <v>4</v>
@@ -1722,22 +1723,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -1745,22 +1746,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -1768,22 +1769,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -1791,68 +1792,68 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="B40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -1860,114 +1861,114 @@
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="F41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="B42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>141</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="E43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="B44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
@@ -1975,76 +1976,99 @@
     </row>
     <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="F46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="B47" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="F47" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="B48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="F48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="E49" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="29" orientation="landscape" blackAndWhite="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="30" orientation="landscape" blackAndWhite="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
+++ b/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh-Gateway\SensorBoard\Project Outputs for SensorBoard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B05BD46-3DE7-418C-BB50-E0200B7F4DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3945" windowWidth="21600" windowHeight="11505" xr2:uid="{D06E21C2-789A-404E-A589-0488EF1CEEF7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SensorBoard" sheetId="1" r:id="rId1"/>
@@ -18,26 +17,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-SensorBoard'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="203">
   <si>
     <t>DesignItemId</t>
   </si>
@@ -60,6 +50,18 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>DB107S</t>
+  </si>
+  <si>
+    <t>Bridge Rectifier Single Phase Standard 1kV Surface Mount DB-S</t>
+  </si>
+  <si>
+    <t>BR1</t>
+  </si>
+  <si>
+    <t>DIOB_DB107S</t>
+  </si>
+  <si>
     <t>C0805</t>
   </si>
   <si>
@@ -84,6 +86,18 @@
     <t>C3</t>
   </si>
   <si>
+    <t>Q12B1D102KN0B0S0N0</t>
+  </si>
+  <si>
+    <t>1nF/400VAC</t>
+  </si>
+  <si>
+    <t>Y1 1nF ±10% 400V 10mm Through Hole,P=10mm Suppression Capacitors RoHS</t>
+  </si>
+  <si>
+    <t>C6, C12</t>
+  </si>
+  <si>
     <t>100pF</t>
   </si>
   <si>
@@ -120,6 +134,18 @@
     <t>CAP POL 1411_3528</t>
   </si>
   <si>
+    <t>MP2104KGC3XLC</t>
+  </si>
+  <si>
+    <t>0.1uF/275VAC</t>
+  </si>
+  <si>
+    <t>X2 100nF ±10% 275V 10mm Through Hole,P=10mm Suppression Capacitors RoHS</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
     <t>CUS10S30,H3F</t>
   </si>
   <si>
@@ -192,6 +218,27 @@
     <t>D9</t>
   </si>
   <si>
+    <t>ORH-R35A</t>
+  </si>
+  <si>
+    <t>RLED</t>
+  </si>
+  <si>
+    <t>OrangeRed 615~625nm 0805 Light Emitting Diodes (LED) RoHS</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>PESDHC2FD4V5BH</t>
+  </si>
+  <si>
+    <t>http://www.prisemi.com/UploadImage/files/ESD(TVS%20Array%EF%BC%89/High%20capacitance/PESDHC2FD4V5BH.pdf</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
     <t>12-21SURC/S530-A3/TR8</t>
   </si>
   <si>
@@ -201,16 +248,7 @@
     <t>Red 624nm Right-Angle 1206 Light Emitting Diodes (LED) RoHS</t>
   </si>
   <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>PESDHC2FD4V5BH</t>
-  </si>
-  <si>
-    <t>http://www.prisemi.com/UploadImage/files/ESD(TVS%20Array%EF%BC%89/High%20capacitance/PESDHC2FD4V5BH.pdf</t>
-  </si>
-  <si>
-    <t>D11</t>
+    <t>D12</t>
   </si>
   <si>
     <t>CC12H3A-TR</t>
@@ -225,46 +263,28 @@
     <t>FUSE 1206_3216 0.6MM</t>
   </si>
   <si>
-    <t>2213932-4</t>
-  </si>
-  <si>
-    <t>Pluggable Terminal Blocks SMT TB R/A HEADER 3.5MM, 4 POS</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>CONN_2213932-4_TEC-NoBody</t>
-  </si>
-  <si>
-    <t>J2, J3, J11, J12, J14</t>
-  </si>
-  <si>
-    <t>CONN_2213932-4_TEC</t>
-  </si>
-  <si>
-    <t>2213932-3</t>
-  </si>
-  <si>
-    <t>Pluggable Terminal Blocks SMT TB R/A HEADER 3.5MM, 3 POS</t>
-  </si>
-  <si>
-    <t>J4, J10</t>
-  </si>
-  <si>
-    <t>CONN_2213932-3_TEC</t>
-  </si>
-  <si>
-    <t>2213932-2</t>
-  </si>
-  <si>
-    <t>Pluggable Terminal Blocks SMT TB R/A HEADER 3.5MM, 2 POS</t>
-  </si>
-  <si>
-    <t>J5, J6, J8, J9</t>
-  </si>
-  <si>
-    <t>CONN_2213932-2_TEC</t>
+    <t>MF2410F1.000TM</t>
+  </si>
+  <si>
+    <t>Chip Fuse 1A 84mΩ 100A 0.62 2410 Surface Mount Fuses RoHS</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>MF2410F1.000TM-Fuse2410</t>
+  </si>
+  <si>
+    <t>Pluggable 2x8P Terminal Block Right Angle</t>
+  </si>
+  <si>
+    <t>PT-Block</t>
+  </si>
+  <si>
+    <t>3.81mm Pitch Double Row Right Angle Pin Male Pluggable PCB Electrical Screw Terminal Block 2x8P</t>
+  </si>
+  <si>
+    <t>J1, J14</t>
   </si>
   <si>
     <t>Male Header 10x2</t>
@@ -279,18 +299,27 @@
     <t>J7</t>
   </si>
   <si>
-    <t>PJ-102AH</t>
-  </si>
-  <si>
-    <t>CONN PWR JACK 2X5.5MM SOLDER</t>
+    <t>JTAG10pin1.27mm</t>
+  </si>
+  <si>
+    <t>CONN HEADER 10POS DUAL .05" SMD</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>20021121-00010C4LF</t>
+  </si>
+  <si>
+    <t>Pluggable 2x3P Terminal Block Right Angle</t>
+  </si>
+  <si>
+    <t>3.81mm Pitch Double Row Right Angle Pin Male Pluggable PCB Electrical Screw Terminal Block 2x3P</t>
   </si>
   <si>
     <t>J13</t>
   </si>
   <si>
-    <t>CUI PJ-102AH</t>
-  </si>
-  <si>
     <t>Male Header 2x3 RA</t>
   </si>
   <si>
@@ -342,6 +371,40 @@
     <t>WURTH WE-LQS 6045</t>
   </si>
   <si>
+    <t>UU9.8Y-10mH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _x000D_
+Power Line 10mH @ 1kHz 1.2Ω Through Hole Common Mode Chokes / Filters RoHS</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>HLK-5M05</t>
+  </si>
+  <si>
+    <t>AC DC 220V to 5V 5W 5Watt Isolated Switching Step-Down Power Supply Module Converter</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>CONV_HLK-5M05</t>
+  </si>
+  <si>
+    <t>MMBT3904LT3G</t>
+  </si>
+  <si>
+    <t>TRANS NPN 40V 0.2A SOT23</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>ON SEMI SOT-23-3</t>
+  </si>
+  <si>
     <t>R0805</t>
   </si>
   <si>
@@ -417,13 +480,43 @@
     <t>130ohm</t>
   </si>
   <si>
-    <t>R28</t>
+    <t>Resistor SMD 0805, [NoValue]</t>
+  </si>
+  <si>
+    <t>R28, R38</t>
   </si>
   <si>
     <t>120ohm</t>
   </si>
   <si>
     <t>R29</t>
+  </si>
+  <si>
+    <t>MOV-10D221K</t>
+  </si>
+  <si>
+    <t>Varistors 180pF 560volts 10%</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>MOV-10D221K_BRN</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>47Kohm</t>
+  </si>
+  <si>
+    <t>R40</t>
   </si>
   <si>
     <t>B3U-1000P</t>
@@ -549,7 +642,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,7 +739,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -658,7 +751,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -705,23 +798,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -757,23 +833,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -925,11 +984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E853FD-42AF-4415-85FE-360E23A57D09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -962,21 +1021,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
@@ -987,91 +1046,91 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4">
         <v>2</v>
@@ -1079,74 +1138,74 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1189,24 +1248,24 @@
         <v>39</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>43</v>
@@ -1215,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -1238,21 +1297,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>51</v>
@@ -1261,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -1275,7 +1334,7 @@
         <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>55</v>
@@ -1284,24 +1343,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -1309,206 +1368,206 @@
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="4">
         <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="G24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -1516,28 +1575,28 @@
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>101</v>
       </c>
@@ -1557,372 +1616,372 @@
         <v>101</v>
       </c>
       <c r="G27" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G29" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G30" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G32" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G33" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G34" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G36" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G38" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
@@ -1930,145 +1989,352 @@
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="G46" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="C50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G58" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="30" orientation="landscape" blackAndWhite="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="23" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
+++ b/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh-Gateway\SensorBoard\Project Outputs for SensorBoard\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh+Gateway\SensorBoard\Project Outputs for SensorBoard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{911B6BF1-8141-4750-9D31-978AA7B828D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="10215"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{6377FAC8-6C98-4734-A449-8638C0024F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SensorBoard" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-SensorBoard'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -642,7 +652,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,7 +749,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -751,7 +761,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -798,6 +808,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -833,6 +860,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -984,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F0A37B-7B71-4F43-8CA6-9D8117D0740F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
+++ b/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh+Gateway\SensorBoard\Project Outputs for SensorBoard\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh-Gateway\SensorBoard\Project Outputs for SensorBoard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{911B6BF1-8141-4750-9D31-978AA7B828D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{6377FAC8-6C98-4734-A449-8638C0024F39}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4155" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SensorBoard" sheetId="1" r:id="rId1"/>
@@ -18,26 +17,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-SensorBoard'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="196">
   <si>
     <t>DesignItemId</t>
   </si>
@@ -60,18 +50,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>DB107S</t>
-  </si>
-  <si>
-    <t>Bridge Rectifier Single Phase Standard 1kV Surface Mount DB-S</t>
-  </si>
-  <si>
-    <t>BR1</t>
-  </si>
-  <si>
-    <t>DIOB_DB107S</t>
-  </si>
-  <si>
     <t>C0805</t>
   </si>
   <si>
@@ -87,7 +65,7 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C2, C4, C5</t>
+    <t>C2, C4, C5, C8, C9</t>
   </si>
   <si>
     <t>1uF</t>
@@ -96,6 +74,18 @@
     <t>C3</t>
   </si>
   <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C6, C7</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
     <t>Q12B1D102KN0B0S0N0</t>
   </si>
   <si>
@@ -105,13 +95,19 @@
     <t>Y1 1nF ±10% 400V 10mm Through Hole,P=10mm Suppression Capacitors RoHS</t>
   </si>
   <si>
-    <t>C6, C12</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C7, C8</t>
+    <t>C11, C13</t>
+  </si>
+  <si>
+    <t>MP2104KGC3XLC</t>
+  </si>
+  <si>
+    <t>0.1uF/275VAC</t>
+  </si>
+  <si>
+    <t>X2 100nF ±10% 275V 10mm Through Hole,P=10mm Suppression Capacitors RoHS</t>
+  </si>
+  <si>
+    <t>C12</t>
   </si>
   <si>
     <t>TPSD107K010S0080</t>
@@ -123,7 +119,7 @@
     <t>CAP TANT 100UF 10% 10V 2917</t>
   </si>
   <si>
-    <t>C9, C10</t>
+    <t>C14, C15</t>
   </si>
   <si>
     <t>CAP POL 2917_7343</t>
@@ -138,22 +134,34 @@
     <t>CAP TANT 1UF 10% 35V 1411</t>
   </si>
   <si>
-    <t>C11</t>
+    <t>C16</t>
   </si>
   <si>
     <t>CAP POL 1411_3528</t>
   </si>
   <si>
-    <t>MP2104KGC3XLC</t>
-  </si>
-  <si>
-    <t>0.1uF/275VAC</t>
-  </si>
-  <si>
-    <t>X2 100nF ±10% 275V 10mm Through Hole,P=10mm Suppression Capacitors RoHS</t>
-  </si>
-  <si>
-    <t>C13</t>
+    <t>12-21C/G6C-KN2P2/2C</t>
+  </si>
+  <si>
+    <t>GLED-RA</t>
+  </si>
+  <si>
+    <t>Green-yellow 569.5~575.5nm Right-Angle 1206 Light Emitting Diodes (LED) RoHS</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>12-21C/BHC-AP1Q1N/2C</t>
+  </si>
+  <si>
+    <t>BLED-RA</t>
+  </si>
+  <si>
+    <t>Blue 464.5~476.5nm 1206 Right-Angle Light Emitting Diodes (LED) RoHS</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
   <si>
     <t>CUS10S30,H3F</t>
@@ -162,34 +170,22 @@
     <t>DIODE SCHOTTKY 30V 1A USC</t>
   </si>
   <si>
-    <t>D1, D2, D5, D6</t>
+    <t>D3, D4, D5, D7</t>
   </si>
   <si>
     <t>SOD323</t>
   </si>
   <si>
-    <t>12-21C/G6C-KN2P2/2C</t>
-  </si>
-  <si>
-    <t>GLED-RA</t>
-  </si>
-  <si>
-    <t>Green-yellow 569.5~575.5nm Right-Angle 1206 Light Emitting Diodes (LED) RoHS</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>12-21C/BHC-AP1Q1N/2C</t>
-  </si>
-  <si>
-    <t>BLED-RA</t>
-  </si>
-  <si>
-    <t>Blue 464.5~476.5nm 1206 Right-Angle Light Emitting Diodes (LED) RoHS</t>
-  </si>
-  <si>
-    <t>D4</t>
+    <t>12-21SURC/S530-A3/TR8</t>
+  </si>
+  <si>
+    <t>RLED-RA</t>
+  </si>
+  <si>
+    <t>Red 624nm Right-Angle 1206 Light Emitting Diodes (LED) RoHS</t>
+  </si>
+  <si>
+    <t>D6</t>
   </si>
   <si>
     <t>P6SMB7.5A</t>
@@ -198,7 +194,7 @@
     <t>TVS DIODE 6.4V 11.3V DO214AA</t>
   </si>
   <si>
-    <t>D7</t>
+    <t>D8</t>
   </si>
   <si>
     <t>DO214AA SMB</t>
@@ -210,7 +206,7 @@
     <t>DIODE ZENER 5.6V 200MW SOT323</t>
   </si>
   <si>
-    <t>D8</t>
+    <t>D9</t>
   </si>
   <si>
     <t>DIODES SOT-323-3</t>
@@ -225,7 +221,7 @@
     <t>Green 515~535nm 0805 Light Emitting Diodes (LED) RoHS</t>
   </si>
   <si>
-    <t>D9</t>
+    <t>D10</t>
   </si>
   <si>
     <t>ORH-R35A</t>
@@ -237,7 +233,7 @@
     <t>OrangeRed 615~625nm 0805 Light Emitting Diodes (LED) RoHS</t>
   </si>
   <si>
-    <t>D10</t>
+    <t>D11</t>
   </si>
   <si>
     <t>PESDHC2FD4V5BH</t>
@@ -246,43 +242,43 @@
     <t>http://www.prisemi.com/UploadImage/files/ESD(TVS%20Array%EF%BC%89/High%20capacitance/PESDHC2FD4V5BH.pdf</t>
   </si>
   <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>12-21SURC/S530-A3/TR8</t>
-  </si>
-  <si>
-    <t>RLED-RA</t>
-  </si>
-  <si>
-    <t>Red 624nm Right-Angle 1206 Light Emitting Diodes (LED) RoHS</t>
-  </si>
-  <si>
     <t>D12</t>
   </si>
   <si>
+    <t>MF2410F1.000TM</t>
+  </si>
+  <si>
+    <t>Chip Fuse 1A 84mΩ 100A 0.62 2410 Surface Mount Fuses RoHS</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>MF2410F1.000TM-Fuse2410</t>
+  </si>
+  <si>
     <t>CC12H3A-TR</t>
   </si>
   <si>
     <t>FUSE BOARD MOUNT 3A 63VDC 1206</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>F2</t>
   </si>
   <si>
     <t>FUSE 1206_3216 0.6MM</t>
   </si>
   <si>
-    <t>MF2410F1.000TM</t>
-  </si>
-  <si>
-    <t>Chip Fuse 1A 84mΩ 100A 0.62 2410 Surface Mount Fuses RoHS</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>MF2410F1.000TM-Fuse2410</t>
+    <t>JTAG10pin1.27mm</t>
+  </si>
+  <si>
+    <t>CONN HEADER 10POS DUAL .05" SMD</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>20021121-00010C4LF</t>
   </si>
   <si>
     <t>Pluggable 2x8P Terminal Block Right Angle</t>
@@ -294,7 +290,22 @@
     <t>3.81mm Pitch Double Row Right Angle Pin Male Pluggable PCB Electrical Screw Terminal Block 2x8P</t>
   </si>
   <si>
-    <t>J1, J14</t>
+    <t>J2, J3</t>
+  </si>
+  <si>
+    <t>Male Header 3x1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>Male Header 4x1</t>
+  </si>
+  <si>
+    <t>J5</t>
   </si>
   <si>
     <t>Male Header 10x2</t>
@@ -306,30 +317,18 @@
     <t>Header, 2.54mm, 10x2, Tin, TH</t>
   </si>
   <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>Pluggable 2x3P Terminal Block Right Angle</t>
+  </si>
+  <si>
+    <t>3.81mm Pitch Double Row Right Angle Pin Male Pluggable PCB Electrical Screw Terminal Block 2x3P</t>
+  </si>
+  <si>
     <t>J7</t>
   </si>
   <si>
-    <t>JTAG10pin1.27mm</t>
-  </si>
-  <si>
-    <t>CONN HEADER 10POS DUAL .05" SMD</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>20021121-00010C4LF</t>
-  </si>
-  <si>
-    <t>Pluggable 2x3P Terminal Block Right Angle</t>
-  </si>
-  <si>
-    <t>3.81mm Pitch Double Row Right Angle Pin Male Pluggable PCB Electrical Screw Terminal Block 2x3P</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
     <t>Male Header 2x3 RA</t>
   </si>
   <si>
@@ -342,18 +341,6 @@
     <t>JP1</t>
   </si>
   <si>
-    <t>Male Header 2x1</t>
-  </si>
-  <si>
-    <t>PEC02SAAN</t>
-  </si>
-  <si>
-    <t>Header, 100mil, 2x1, Tin, TH</t>
-  </si>
-  <si>
-    <t>JP2</t>
-  </si>
-  <si>
     <t>ACM2012-121-2P-T002</t>
   </si>
   <si>
@@ -366,6 +353,15 @@
     <t>TDK-ACM2012-4_V</t>
   </si>
   <si>
+    <t>UU9.8Y-10mH</t>
+  </si>
+  <si>
+    <t>Power Line 10mH @ 1kHz 1.2Ω Through Hole Common Mode Chokes / Filters RoHS</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
     <t>74404064470</t>
   </si>
   <si>
@@ -375,22 +371,12 @@
     <t>FIXED IND 47UH 1.2A 200 MOHM SMD</t>
   </si>
   <si>
-    <t>L2</t>
+    <t>L3</t>
   </si>
   <si>
     <t>WURTH WE-LQS 6045</t>
   </si>
   <si>
-    <t>UU9.8Y-10mH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _x000D_
-Power Line 10mH @ 1kHz 1.2Ω Through Hole Common Mode Chokes / Filters RoHS</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
     <t>HLK-5M05</t>
   </si>
   <si>
@@ -424,7 +410,7 @@
     <t>Resistor SMD 0805</t>
   </si>
   <si>
-    <t>R1, R3, R4</t>
+    <t>R1, R6, R7</t>
   </si>
   <si>
     <t>0R</t>
@@ -436,111 +422,66 @@
     <t>10ohm</t>
   </si>
   <si>
-    <t>R5, R6</t>
+    <t>R3, R5</t>
+  </si>
+  <si>
+    <t>120ohm</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>68ohm</t>
+  </si>
+  <si>
+    <t>R8, R9</t>
   </si>
   <si>
     <t>1K</t>
   </si>
   <si>
-    <t>R7, R8, R11, R20</t>
-  </si>
-  <si>
-    <t>33ohm</t>
-  </si>
-  <si>
-    <t>R9, R10</t>
-  </si>
-  <si>
-    <t>470k</t>
-  </si>
-  <si>
-    <t>R12, R16, R21, R26</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>R13, R17, R19, R24</t>
-  </si>
-  <si>
-    <t>110k</t>
-  </si>
-  <si>
-    <t>R14, R15, R23, R25</t>
-  </si>
-  <si>
-    <t>3.3k</t>
+    <t>R10, R11, R12, R15</t>
+  </si>
+  <si>
+    <t>430ohm</t>
+  </si>
+  <si>
+    <t>R13, R19</t>
+  </si>
+  <si>
+    <t>270ohm</t>
+  </si>
+  <si>
+    <t>[NoValue], Resistor SMD 0805</t>
+  </si>
+  <si>
+    <t>R14, R20</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>47Kohm</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>MOV-10D221K</t>
+  </si>
+  <si>
+    <t>Varistors 180pF 560volts 10%</t>
   </si>
   <si>
     <t>R18</t>
   </si>
   <si>
-    <t>1.6k (1%)</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>200ohm</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>130ohm</t>
-  </si>
-  <si>
-    <t>Resistor SMD 0805, [NoValue]</t>
-  </si>
-  <si>
-    <t>R28, R38</t>
-  </si>
-  <si>
-    <t>120ohm</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>MOV-10D221K</t>
-  </si>
-  <si>
-    <t>Varistors 180pF 560volts 10%</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
     <t>MOV-10D221K_BRN</t>
   </si>
   <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>47Kohm</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>B3U-1000P</t>
-  </si>
-  <si>
-    <t>Tactile Switch SPST-NO Top Actuated Surface Mount</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>SW_B3U-1000P</t>
-  </si>
-  <si>
     <t>SNT-100-BK-G Jumper</t>
   </si>
   <si>
@@ -550,7 +491,7 @@
     <t>Shunt, 100mil, Gold plated, Black</t>
   </si>
   <si>
-    <t>SH-J1</t>
+    <t>SH-J1, SH-J2</t>
   </si>
   <si>
     <t>Jumper</t>
@@ -562,21 +503,12 @@
     <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
   </si>
   <si>
-    <t>SW1</t>
+    <t>SW1, SW2</t>
   </si>
   <si>
     <t>FP-TL3330AF260QG-MFG</t>
   </si>
   <si>
-    <t>C3661</t>
-  </si>
-  <si>
-    <t>SPST 2 2.54mm, Full Slide (Standard) Red Through Hole DIP Switches RoHS</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
     <t>ESP32-WROOM-32UE</t>
   </si>
   <si>
@@ -592,6 +524,9 @@
     <t>MAX3485ESA+</t>
   </si>
   <si>
+    <t>MAX485ESA+</t>
+  </si>
+  <si>
     <t>1/1 Transceiver Half RS422, RS485 8-SOIC</t>
   </si>
   <si>
@@ -601,28 +536,49 @@
     <t>SOIC127P600X175-8N</t>
   </si>
   <si>
+    <t>TC7SB3157CFU</t>
+  </si>
+  <si>
+    <t>No Description Available</t>
+  </si>
+  <si>
+    <t>U3, U4</t>
+  </si>
+  <si>
+    <t>SOT-363   (US6)</t>
+  </si>
+  <si>
     <t>SM712.TCT</t>
   </si>
   <si>
     <t>Asymmetrical TVS Diode for Extended Common-Mode RS-485, 400 W, -55 to 125 degC, 3-Pin SOT23, RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>U3</t>
+    <t>U5</t>
   </si>
   <si>
     <t>SMTC-SOT23-3_V</t>
   </si>
   <si>
-    <t>LMV844MA/NOPB</t>
-  </si>
-  <si>
-    <t>Quad CMOS Input, RRIO, Wide Supply Range Quad Operational Amplifiers, 14-pin Narrow SOIC, Pb-Free</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>LM844</t>
+    <t>MCP3204-BI/SL</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>MCP-3204-BI/SL</t>
+  </si>
+  <si>
+    <t>LM4040AIM3-5.0/NOPB</t>
+  </si>
+  <si>
+    <t>5V ±0.1% 100ppm/°C SOT-23(SOT-23-3) Voltage References RoHS</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>SOT95P237X112-3N</t>
   </si>
   <si>
     <t>AP1509-33SG-13</t>
@@ -631,7 +587,7 @@
     <t>22V 2A SOIC-8_150mil DC-DC Converters RoHS</t>
   </si>
   <si>
-    <t>U5</t>
+    <t>U8</t>
   </si>
   <si>
     <t>AP1509</t>
@@ -643,16 +599,28 @@
     <t>Ethernet Controllers Module 10/100 Base-T/TX PHY SPI 2.97V ~ 3.63V LQFP-48_7x7x05P Ethernet ICs RoHS</t>
   </si>
   <si>
-    <t>U6</t>
+    <t>U9</t>
   </si>
   <si>
     <t>USR-ES1-WIZNET5500</t>
+  </si>
+  <si>
+    <t>MAX31865ATP+</t>
+  </si>
+  <si>
+    <t>Temp Monitoring System _Sensor_ External Sensor SPI Output 20-TQFN _5x5_</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>MAX31865ATP+T,TQFN-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,7 +717,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -761,7 +729,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -808,23 +776,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -860,23 +811,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1028,11 +962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F0A37B-7B71-4F43-8CA6-9D8117D0740F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,21 +999,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
@@ -1090,275 +1024,275 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -1366,252 +1300,252 @@
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -1619,321 +1553,321 @@
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G33" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G34" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G38" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="4">
         <v>4</v>
@@ -1941,68 +1875,68 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G40" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -2010,22 +1944,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
@@ -2033,160 +1967,160 @@
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="F44" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="G45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="G46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="G47" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G50" s="4">
         <v>1</v>
@@ -2194,22 +2128,22 @@
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G51" s="4">
         <v>1</v>
@@ -2217,168 +2151,99 @@
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G52" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G54" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G58" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="23" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup scale="24" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>